--- a/navaids.xlsx
+++ b/navaids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3EA8B-C82E-417B-B2A9-334628B2C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6821915-893E-4013-846D-27AF7640D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8898" uniqueCount="3732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8897" uniqueCount="3731">
   <si>
     <t>Identifier</t>
   </si>
@@ -11203,9 +11203,6 @@
   </si>
   <si>
     <t>IND</t>
-  </si>
-  <si>
-    <t>33.4353550/-112.0079139</t>
   </si>
   <si>
     <t>Oklahoma City112.15</t>
@@ -11283,7 +11280,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11570,9 +11567,9 @@
   <dimension ref="A1:Z1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A1039" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A781" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="I1059" sqref="I1059"/>
+      <selection pane="bottomLeft" activeCell="F789" sqref="F789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36658,7 +36655,7 @@
         <v>3725</v>
       </c>
       <c r="B521" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C521" s="5">
         <v>109.6</v>
@@ -36676,7 +36673,7 @@
         <v>22</v>
       </c>
       <c r="X521" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="Z521">
         <v>24</v>
@@ -46922,7 +46919,7 @@
         <v>3724</v>
       </c>
       <c r="B733" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C733" s="4">
         <v>112.15</v>
@@ -46940,7 +46937,7 @@
         <v>22</v>
       </c>
       <c r="X733" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="Z733">
         <v>24</v>
@@ -49616,8 +49613,8 @@
       <c r="E789">
         <v>33.435355000000001</v>
       </c>
-      <c r="F789" t="s">
-        <v>3726</v>
+      <c r="F789">
+        <v>-112.00791390000001</v>
       </c>
       <c r="G789" t="s">
         <v>3718</v>
@@ -49629,7 +49626,7 @@
         <v>22</v>
       </c>
       <c r="X789" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="Z789">
         <v>24</v>
